--- a/SuRGE_Sharepoint/data/CIN/CH4_078_Owen/dataSheets/surgeData78.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_078_Owen/dataSheets/surgeData78.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_078_Owen/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_078_Owen/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{385E6E73-9135-4998-A235-CD214DFA3240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316ADC97-87DA-41D0-8761-248F1463000B}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{385E6E73-9135-4998-A235-CD214DFA3240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63FADC6B-244D-4019-8E69-76BF88BF61D5}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-756" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="28488" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1342,9 +1342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1382,7 +1382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1488,7 +1488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1630,7 +1630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1641,79 +1641,79 @@
   <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y7" sqref="Y7"/>
+      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD16" sqref="BD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="BO1" s="30"/>
       <c r="BP1" s="30"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>208</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>208</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>208</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>208</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>208</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>208</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>208</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>208</v>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="AT10" s="1"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>208</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>208</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>208</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>208</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>208</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>208</v>
       </c>
@@ -3155,7 +3155,27 @@
       <c r="AP16" t="s">
         <v>207</v>
       </c>
-      <c r="AT16" s="1"/>
+      <c r="AQ16">
+        <v>3.3</v>
+      </c>
+      <c r="AR16">
+        <v>23.78</v>
+      </c>
+      <c r="AS16">
+        <v>0.64</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>3658</v>
+      </c>
+      <c r="AU16">
+        <v>9.07</v>
+      </c>
+      <c r="AV16">
+        <v>10.4</v>
+      </c>
+      <c r="AW16">
+        <v>0.3</v>
+      </c>
       <c r="BJ16" t="s">
         <v>195</v>
       </c>
@@ -3166,7 +3186,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>208</v>
       </c>
@@ -3249,7 +3269,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>208</v>
       </c>
@@ -3260,7 +3280,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>208</v>
       </c>
@@ -3294,14 +3314,14 @@
       <selection activeCell="A68" sqref="A68:A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3345,7 +3365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3356,7 +3376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3367,7 +3387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3411,7 +3431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3422,7 +3442,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3433,7 +3453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3452,7 +3472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3463,7 +3483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3471,7 +3491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3482,7 +3502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3490,7 +3510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3501,7 +3521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3512,7 +3532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3523,7 +3543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3534,7 +3554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3545,7 +3565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3567,7 +3587,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3578,7 +3598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3611,7 +3631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3622,7 +3642,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3633,7 +3653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3641,7 +3661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3649,7 +3669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3657,7 +3677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3665,7 +3685,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3673,7 +3693,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3681,7 +3701,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -3689,7 +3709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3697,7 +3717,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -3705,7 +3725,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -3713,7 +3733,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3721,7 +3741,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -3729,7 +3749,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3740,7 +3760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +3771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3762,7 +3782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3773,7 +3793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -3795,7 +3815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3806,7 +3826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3814,7 +3834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -3830,7 +3850,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -3838,7 +3858,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -3846,7 +3866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3854,7 +3874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -3862,7 +3882,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -3870,7 +3890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -3878,7 +3898,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -3894,7 +3914,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -3902,7 +3922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -3913,7 +3933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -3924,7 +3944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -3946,7 +3966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -3957,7 +3977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -3992,17 +4012,17 @@
       <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
@@ -4018,7 +4038,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4072,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>208</v>
       </c>
@@ -4081,7 +4101,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>208</v>
       </c>
@@ -4110,7 +4130,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>208</v>
       </c>
@@ -4139,7 +4159,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>208</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>208</v>
       </c>
@@ -4197,7 +4217,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>208</v>
       </c>
@@ -4244,14 +4264,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4262,7 +4282,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4273,7 +4293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4284,7 +4304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4295,7 +4315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4306,7 +4326,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4317,7 +4337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4325,7 +4345,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4336,7 +4356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4347,7 +4367,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4358,7 +4378,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>158</v>
       </c>
@@ -4375,57 +4395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4896,15 +4865,81 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCD00F2-0BE5-42AB-A850-94DCAF42774C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4918,12 +4953,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DCD00F2-0BE5-42AB-A850-94DCAF42774C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
